--- a/investment/new-stock.xlsx
+++ b/investment/new-stock.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,14 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预测中签率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际中签率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申购价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +178,10 @@
   </si>
   <si>
     <t>浙江鼎力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中签率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +252,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -285,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,6 +324,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -629,12 +636,11 @@
     <col min="5" max="5" width="9" style="3"/>
     <col min="6" max="6" width="10.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,33 +648,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7">
         <v>42073</v>
@@ -684,122 +687,187 @@
         <v>172425</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4">
         <v>42074</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="E3" s="3">
+        <v>18.91</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G7" si="0">E3*F3</f>
+        <v>141825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4">
         <v>42074</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="E4" s="3">
+        <v>14.71</v>
+      </c>
+      <c r="F4" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>110325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4">
         <v>42074</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="E5" s="3">
+        <v>15.38</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>115350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <v>42074</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="E6" s="3">
+        <v>13.21</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>99075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4">
         <v>42074</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="6" customFormat="1">
+      <c r="E7" s="3">
+        <v>13.97</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>104775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
         <v>42075</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="F8" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>42075</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1">
+      <c r="F9" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
         <v>42075</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="F10" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="4">
         <v>42075</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="F11" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4">
         <v>42075</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1">
+      <c r="F12" s="3">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11">
         <v>732729</v>
@@ -808,12 +876,12 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1">
+    <row r="14" spans="1:8" s="8" customFormat="1">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8">
         <v>730958</v>
@@ -822,12 +890,12 @@
         <v>42074</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1">
+    <row r="15" spans="1:8" s="8" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="8">
         <v>732869</v>
@@ -836,12 +904,12 @@
         <v>42075</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1">
+    <row r="16" spans="1:8" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8">
         <v>732199</v>
@@ -852,10 +920,10 @@
     </row>
     <row r="17" spans="1:4" s="8" customFormat="1">
       <c r="A17" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8">
         <v>732020</v>
@@ -866,10 +934,10 @@
     </row>
     <row r="18" spans="1:4" s="8" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="8">
         <v>732338</v>

--- a/investment/new-stock.xlsx
+++ b/investment/new-stock.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所需资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申购价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,6 +53,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SZ-300428</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四通新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-300374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒通科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙韵股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-300431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-603869</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北部湾旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-600958</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-603729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-002747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃斯顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九华旅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-603199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-002749</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国光股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-300429</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-603020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱普股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-002748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世龙实业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-603338</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江鼎力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中签率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SZ-300432</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -65,42 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SZ-300428</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四通新材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-300374</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恒通科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申购代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙韵股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方证券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-300431</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴风科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SZ-002750</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,79 +181,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SH-603869</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北部湾旅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH-600958</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH-603729</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-002747</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃斯顿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九华旅游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH-603199</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-002749</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国光股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-300429</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强力新材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH-603020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱普股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-002748</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世龙实业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH-603338</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江鼎力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中签率</t>
+    <t>申购金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总中签概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配号数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ycg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出资人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购额合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出资额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -189,6 +233,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -275,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -283,50 +330,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,330 +733,589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="9.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="3"/>
-    <col min="6" max="6" width="10.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="7" width="10.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9" style="2"/>
+    <col min="13" max="13" width="12.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.25" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10">
         <v>42073</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="17">
         <v>22.99</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="9">
         <v>7500</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="9">
+        <v>15</v>
+      </c>
+      <c r="H2" s="17">
         <f>E2*F2</f>
         <v>172425</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="22">
+        <v>150000</v>
+      </c>
+      <c r="N2" s="22">
+        <v>350000</v>
+      </c>
+      <c r="O2" s="22">
+        <v>380000</v>
+      </c>
+      <c r="P2" s="22">
+        <v>190000</v>
+      </c>
+      <c r="Q2" s="22">
+        <f>SUM(M2:P2)</f>
+        <v>1070000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12">
+        <v>42074</v>
+      </c>
+      <c r="E3" s="22">
+        <v>18.91</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="18">
+        <f t="shared" ref="H3:H12" si="0">E3*F3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="L3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="28">
+        <f>M2/Q2</f>
+        <v>0.14018691588785046</v>
+      </c>
+      <c r="N3" s="28">
+        <f>N2/Q2</f>
+        <v>0.32710280373831774</v>
+      </c>
+      <c r="O3" s="28">
+        <f>O2/Q2</f>
+        <v>0.35514018691588783</v>
+      </c>
+      <c r="P3" s="28">
+        <f>P2/Q2</f>
+        <v>0.17757009345794392</v>
+      </c>
+      <c r="Q3" s="28">
+        <f>SUM(M3:P3)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12">
         <v>42074</v>
       </c>
-      <c r="E3" s="3">
-        <v>18.91</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E4" s="22">
+        <v>14.71</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12">
+        <v>42074</v>
+      </c>
+      <c r="E5" s="22">
+        <v>15.38</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12">
+        <v>42074</v>
+      </c>
+      <c r="E6" s="22">
+        <v>13.21</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10">
+        <v>42074</v>
+      </c>
+      <c r="E7" s="19">
+        <v>13.97</v>
+      </c>
+      <c r="F7" s="8">
+        <v>8000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>16</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="0"/>
+        <v>111760</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:17" s="4" customFormat="1">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10">
+        <v>42075</v>
+      </c>
+      <c r="E8" s="17">
+        <v>7.14</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8000</v>
+      </c>
+      <c r="G8" s="8">
+        <v>16</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="0"/>
+        <v>57120</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1">
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="10">
+        <v>42075</v>
+      </c>
+      <c r="E9" s="19">
+        <v>21.21</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6500</v>
+      </c>
+      <c r="G9" s="8">
+        <v>13</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="0"/>
+        <v>137865</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10">
+        <v>42075</v>
+      </c>
+      <c r="E10" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>8000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>16</v>
+      </c>
+      <c r="H10" s="19">
+        <f t="shared" si="0"/>
+        <v>54400</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1">
+      <c r="A11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10">
+        <v>42075</v>
+      </c>
+      <c r="E11" s="19">
+        <v>26.92</v>
+      </c>
+      <c r="F11" s="8">
         <v>7500</v>
       </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G7" si="0">E3*F3</f>
-        <v>141825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="G11" s="8">
+        <v>15</v>
+      </c>
+      <c r="H11" s="19">
+        <f t="shared" si="0"/>
+        <v>201900</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10">
+        <v>42075</v>
+      </c>
+      <c r="E12" s="19">
+        <v>15.89</v>
+      </c>
+      <c r="F12" s="8">
+        <v>8000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>16</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="0"/>
+        <v>127120</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" s="6" customFormat="1">
+      <c r="A13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14">
+        <v>732729</v>
+      </c>
+      <c r="D13" s="15">
         <v>42074</v>
       </c>
-      <c r="E4" s="3">
-        <v>14.71</v>
-      </c>
-      <c r="F4" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" si="0"/>
-        <v>110325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" s="5" customFormat="1">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="13">
+        <v>730958</v>
+      </c>
+      <c r="D14" s="15">
         <v>42074</v>
       </c>
-      <c r="E5" s="3">
-        <v>15.38</v>
-      </c>
-      <c r="F5" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="0"/>
-        <v>115350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4">
-        <v>42074</v>
-      </c>
-      <c r="E6" s="3">
-        <v>13.21</v>
-      </c>
-      <c r="F6" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="0"/>
-        <v>99075</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4">
-        <v>42074</v>
-      </c>
-      <c r="E7" s="3">
-        <v>13.97</v>
-      </c>
-      <c r="F7" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="0"/>
-        <v>104775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1">
-      <c r="A8" s="5" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:17" s="5" customFormat="1">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C15" s="13">
+        <v>732869</v>
+      </c>
+      <c r="D15" s="16">
         <v>42075</v>
       </c>
-      <c r="F8" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:17" s="5" customFormat="1">
+      <c r="A16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="13">
+        <v>732199</v>
+      </c>
+      <c r="D16" s="15">
         <v>42075</v>
       </c>
-      <c r="F9" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1">
+      <c r="A17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="13">
+        <v>732020</v>
+      </c>
+      <c r="D17" s="15">
         <v>42075</v>
       </c>
-      <c r="F10" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4">
-        <v>42075</v>
-      </c>
-      <c r="F11" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1">
+      <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="4">
-        <v>42075</v>
-      </c>
-      <c r="F12" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1">
-      <c r="A13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="11">
-        <v>732729</v>
-      </c>
-      <c r="D13" s="10">
-        <v>42074</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8">
-        <v>730958</v>
-      </c>
-      <c r="D14" s="10">
-        <v>42074</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1">
-      <c r="A15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8">
-        <v>732869</v>
-      </c>
-      <c r="D15" s="9">
-        <v>42075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1">
-      <c r="A16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="8">
-        <v>732199</v>
-      </c>
-      <c r="D16" s="10">
-        <v>42075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="8" customFormat="1">
-      <c r="A17" s="8" t="s">
+      <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="8">
-        <v>732020</v>
-      </c>
-      <c r="D17" s="10">
-        <v>42075</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="8" customFormat="1">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="C18" s="13">
         <v>732338</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="15">
         <v>42076</v>
       </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22">
+        <f>SUM(H2:H18)</f>
+        <v>862590</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:G19"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/investment/new-stock.xlsx
+++ b/investment/new-stock.xlsx
@@ -233,8 +233,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -322,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -345,13 +346,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,27 +420,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="7" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -420,9 +446,6 @@
     </xf>
     <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +461,36 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,14 +789,14 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="7" width="10.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
@@ -789,22 +842,22 @@
       <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="22" t="s">
         <v>52</v>
       </c>
     </row>
@@ -816,10 +869,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="10">
+      <c r="D2" s="24">
         <v>42073</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="13">
         <v>22.99</v>
       </c>
       <c r="F2" s="9">
@@ -828,154 +881,154 @@
       <c r="G2" s="9">
         <v>15</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="13">
         <f>E2*F2</f>
         <v>172425</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="22">
+      <c r="M2" s="18">
         <v>150000</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="18">
         <v>350000</v>
       </c>
-      <c r="O2" s="22">
+      <c r="O2" s="18">
         <v>380000</v>
       </c>
-      <c r="P2" s="22">
+      <c r="P2" s="18">
         <v>190000</v>
       </c>
-      <c r="Q2" s="22">
+      <c r="Q2" s="18">
         <f>SUM(M2:P2)</f>
         <v>1070000</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12">
+      <c r="C3" s="10"/>
+      <c r="D3" s="25">
         <v>42074</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <v>18.91</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="18">
+      <c r="G3" s="10"/>
+      <c r="H3" s="14">
         <f t="shared" ref="H3:H12" si="0">E3*F3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="L3" s="27" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="L3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="23">
         <f>M2/Q2</f>
         <v>0.14018691588785046</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="23">
         <f>N2/Q2</f>
         <v>0.32710280373831774</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="23">
         <f>O2/Q2</f>
         <v>0.35514018691588783</v>
       </c>
-      <c r="P3" s="28">
+      <c r="P3" s="23">
         <f>P2/Q2</f>
         <v>0.17757009345794392</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="23">
         <f>SUM(M3:P3)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12">
+      <c r="C4" s="10"/>
+      <c r="D4" s="25">
         <v>42074</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="18">
         <v>14.71</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="18">
+      <c r="G4" s="10"/>
+      <c r="H4" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12">
+      <c r="C5" s="10"/>
+      <c r="D5" s="25">
         <v>42074</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>15.38</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="18">
+      <c r="G5" s="10"/>
+      <c r="H5" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12">
+      <c r="C6" s="10"/>
+      <c r="D6" s="25">
         <v>42074</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <v>13.21</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="18">
+      <c r="G6" s="10"/>
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
@@ -985,10 +1038,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="10">
+      <c r="D7" s="24">
         <v>42074</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="15">
         <v>13.97</v>
       </c>
       <c r="F7" s="8">
@@ -997,12 +1050,12 @@
       <c r="G7" s="8">
         <v>16</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>111760</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1">
       <c r="A8" s="8" t="s">
@@ -1012,10 +1065,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="10">
+      <c r="D8" s="24">
         <v>42075</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>7.14</v>
       </c>
       <c r="F8" s="8">
@@ -1024,7 +1077,7 @@
       <c r="G8" s="8">
         <v>16</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>57120</v>
       </c>
@@ -1039,10 +1092,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="10">
+      <c r="D9" s="24">
         <v>42075</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="15">
         <v>21.21</v>
       </c>
       <c r="F9" s="8">
@@ -1051,7 +1104,7 @@
       <c r="G9" s="8">
         <v>13</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>137865</v>
       </c>
@@ -1066,10 +1119,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="10">
+      <c r="D10" s="24">
         <v>42075</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="15">
         <v>6.8</v>
       </c>
       <c r="F10" s="8">
@@ -1078,7 +1131,7 @@
       <c r="G10" s="8">
         <v>16</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="15">
         <f t="shared" si="0"/>
         <v>54400</v>
       </c>
@@ -1093,10 +1146,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="10">
+      <c r="D11" s="24">
         <v>42075</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="15">
         <v>26.92</v>
       </c>
       <c r="F11" s="8">
@@ -1105,7 +1158,7 @@
       <c r="G11" s="8">
         <v>15</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="15">
         <f t="shared" si="0"/>
         <v>201900</v>
       </c>
@@ -1120,10 +1173,10 @@
         <v>29</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="10">
+      <c r="D12" s="24">
         <v>42075</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="15">
         <v>15.89</v>
       </c>
       <c r="F12" s="8">
@@ -1132,7 +1185,7 @@
       <c r="G12" s="8">
         <v>16</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="15">
         <f t="shared" si="0"/>
         <v>127120</v>
       </c>
@@ -1140,181 +1193,182 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:17" s="6" customFormat="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>732729</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="26">
         <v>42074</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:17" s="5" customFormat="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="11">
         <v>730958</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="26">
         <v>42074</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:17" s="5" customFormat="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>732869</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="27">
         <v>42075</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:17" s="5" customFormat="1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="11">
         <v>732199</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="26">
         <v>42075</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>732020</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="26">
         <v>42075</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="9">
         <v>732338</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="24">
         <v>42076</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="22">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31">
         <f>SUM(H2:H18)</f>
         <v>862590</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/investment/new-stock.xlsx
+++ b/investment/new-stock.xlsx
@@ -235,7 +235,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -389,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,16 +462,16 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,6 +491,12 @@
     </xf>
     <xf numFmtId="7" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +795,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -879,14 +885,20 @@
         <v>7500</v>
       </c>
       <c r="G2" s="9">
+        <f>F2/500</f>
         <v>15</v>
       </c>
       <c r="H2" s="13">
         <f>E2*F2</f>
         <v>172425</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="I2" s="34">
+        <v>6.6E-3</v>
+      </c>
+      <c r="J2" s="35">
+        <f>I2*G2</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
       <c r="L2" s="22" t="s">
         <v>50</v>
       </c>
@@ -924,9 +936,12 @@
       <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G12" si="0">F3/500</f>
+        <v>0</v>
+      </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H12" si="0">E3*F3</f>
+        <f t="shared" ref="H3:H12" si="1">E3*F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="10"/>
@@ -972,9 +987,12 @@
       <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H4" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="10"/>
@@ -997,9 +1015,12 @@
       <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="10"/>
@@ -1022,9 +1043,12 @@
       <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="10"/>
@@ -1047,11 +1071,12 @@
       <c r="F7" s="8">
         <v>8000</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111760</v>
       </c>
       <c r="I7" s="10"/>
@@ -1072,14 +1097,15 @@
         <v>7.14</v>
       </c>
       <c r="F8" s="8">
-        <v>8000</v>
-      </c>
-      <c r="G8" s="8">
-        <v>16</v>
+        <v>8500</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="H8" s="13">
-        <f t="shared" si="0"/>
-        <v>57120</v>
+        <f t="shared" si="1"/>
+        <v>60690</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1099,14 +1125,15 @@
         <v>21.21</v>
       </c>
       <c r="F9" s="8">
-        <v>6500</v>
-      </c>
-      <c r="G9" s="8">
-        <v>13</v>
+        <v>6000</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="0"/>
-        <v>137865</v>
+        <f t="shared" si="1"/>
+        <v>127260</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1126,14 +1153,15 @@
         <v>6.8</v>
       </c>
       <c r="F10" s="8">
-        <v>8000</v>
-      </c>
-      <c r="G10" s="8">
-        <v>16</v>
+        <v>8500</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="0"/>
-        <v>54400</v>
+        <f t="shared" si="1"/>
+        <v>57800</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -1155,11 +1183,12 @@
       <c r="F11" s="8">
         <v>7500</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H11" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>201900</v>
       </c>
       <c r="I11" s="8"/>
@@ -1182,11 +1211,12 @@
       <c r="F12" s="8">
         <v>8000</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H12" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>127120</v>
       </c>
       <c r="I12" s="8"/>
@@ -1305,9 +1335,16 @@
       <c r="D18" s="24">
         <v>42076</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="E18" s="15">
+        <v>29.56</v>
+      </c>
+      <c r="F18" s="8">
+        <v>7000</v>
+      </c>
+      <c r="G18" s="8">
+        <f>F18/1000</f>
+        <v>7</v>
+      </c>
       <c r="H18" s="17"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -1324,7 +1361,7 @@
       <c r="G19" s="30"/>
       <c r="H19" s="31">
         <f>SUM(H2:H18)</f>
-        <v>862590</v>
+        <v>858955</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="33"/>

--- a/investment/new-stock.xlsx
+++ b/investment/new-stock.xlsx
@@ -438,9 +438,6 @@
     <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="7" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -496,6 +493,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,7 +795,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -848,22 +848,22 @@
       <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>42073</v>
       </c>
       <c r="E2" s="13">
@@ -892,29 +892,29 @@
         <f>E2*F2</f>
         <v>172425</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="33">
         <v>6.6E-3</v>
       </c>
-      <c r="J2" s="35">
+      <c r="J2" s="34">
         <f>I2*G2</f>
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="17">
         <v>150000</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="17">
         <v>350000</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="17">
         <v>380000</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="17">
         <v>190000</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="17">
         <f>SUM(M2:P2)</f>
         <v>1070000</v>
       </c>
@@ -927,45 +927,45 @@
         <v>6</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>42074</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>18.91</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G12" si="0">F3/500</f>
+        <f t="shared" ref="G3:G17" si="0">F3/500</f>
         <v>0</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H12" si="1">E3*F3</f>
+        <f t="shared" ref="H3:H18" si="1">E3*F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="L3" s="22" t="s">
+      <c r="J3" s="34"/>
+      <c r="L3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="22">
         <f>M2/Q2</f>
         <v>0.14018691588785046</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="22">
         <f>N2/Q2</f>
         <v>0.32710280373831774</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="22">
         <f>O2/Q2</f>
         <v>0.35514018691588783</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="22">
         <f>P2/Q2</f>
         <v>0.17757009345794392</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="22">
         <f>SUM(M3:P3)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -978,10 +978,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>42074</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>14.71</v>
       </c>
       <c r="F4" s="10">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="10" t="s">
@@ -1006,10 +1006,10 @@
         <v>33</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>42074</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>15.38</v>
       </c>
       <c r="F5" s="10">
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
@@ -1034,10 +1034,10 @@
         <v>12</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>42074</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>13.21</v>
       </c>
       <c r="F6" s="10">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
@@ -1062,7 +1062,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>42074</v>
       </c>
       <c r="E7" s="15">
@@ -1079,8 +1079,13 @@
         <f t="shared" si="1"/>
         <v>111760</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="35">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="J7" s="34">
+        <f t="shared" ref="J3:J7" si="2">I7*G7</f>
+        <v>9.1200000000000003E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1">
       <c r="A8" s="8" t="s">
@@ -1090,7 +1095,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>42075</v>
       </c>
       <c r="E8" s="13">
@@ -1118,7 +1123,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>42075</v>
       </c>
       <c r="E9" s="15">
@@ -1146,7 +1151,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>42075</v>
       </c>
       <c r="E10" s="15">
@@ -1174,7 +1179,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>42075</v>
       </c>
       <c r="E11" s="15">
@@ -1202,7 +1207,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>42075</v>
       </c>
       <c r="E12" s="15">
@@ -1232,13 +1237,21 @@
       <c r="C13" s="12">
         <v>732729</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>42074</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
     </row>
@@ -1252,13 +1265,21 @@
       <c r="C14" s="11">
         <v>730958</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>42074</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="17"/>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
@@ -1272,13 +1293,21 @@
       <c r="C15" s="11">
         <v>732869</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="26">
         <v>42075</v>
       </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="17"/>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
@@ -1292,13 +1321,21 @@
       <c r="C16" s="11">
         <v>732199</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="25">
         <v>42075</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="17"/>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
@@ -1312,13 +1349,21 @@
       <c r="C17" s="11">
         <v>732020</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>42075</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
@@ -1332,75 +1377,78 @@
       <c r="C18" s="9">
         <v>732338</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>42076</v>
       </c>
       <c r="E18" s="15">
         <v>29.56</v>
       </c>
       <c r="F18" s="8">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G18" s="8">
         <f>F18/1000</f>
-        <v>7</v>
-      </c>
-      <c r="H18" s="17"/>
+        <v>6</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="1"/>
+        <v>177360</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30">
         <f>SUM(H2:H18)</f>
-        <v>858955</v>
-      </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="33"/>
+        <v>1036315</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/investment/new-stock.xlsx
+++ b/investment/new-stock.xlsx
@@ -471,6 +471,15 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,15 +497,6 @@
     </xf>
     <xf numFmtId="7" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +795,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -892,10 +892,10 @@
         <f>E2*F2</f>
         <v>172425</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="27">
         <v>6.6E-3</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="28">
         <f>I2*G2</f>
         <v>9.9000000000000005E-2</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="34"/>
+      <c r="J3" s="28"/>
       <c r="L3" s="21" t="s">
         <v>51</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="34"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="10" t="s">
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="34"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="34"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
@@ -1079,11 +1079,11 @@
         <f t="shared" si="1"/>
         <v>111760</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="29">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="J7" s="34">
-        <f t="shared" ref="J3:J7" si="2">I7*G7</f>
+      <c r="J7" s="28">
+        <f t="shared" ref="J7:J12" si="2">I7*G7</f>
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
@@ -1112,8 +1112,13 @@
         <f t="shared" si="1"/>
         <v>60690</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="29">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="J8" s="28">
+        <f t="shared" si="2"/>
+        <v>5.7799999999999997E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="3" customFormat="1">
       <c r="A9" s="8" t="s">
@@ -1140,8 +1145,13 @@
         <f t="shared" si="1"/>
         <v>127260</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="I9" s="29">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="J9" s="28">
+        <f t="shared" si="2"/>
+        <v>7.6800000000000007E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:17" s="3" customFormat="1">
       <c r="A10" s="8" t="s">
@@ -1168,8 +1178,13 @@
         <f t="shared" si="1"/>
         <v>57800</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="I10" s="29">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="J10" s="28">
+        <f t="shared" si="2"/>
+        <v>6.6299999999999998E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:17" s="3" customFormat="1">
       <c r="A11" s="8" t="s">
@@ -1196,8 +1211,13 @@
         <f t="shared" si="1"/>
         <v>201900</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="29">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="J11" s="28">
+        <f t="shared" si="2"/>
+        <v>0.10199999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:17" s="3" customFormat="1">
       <c r="A12" s="8" t="s">
@@ -1224,8 +1244,13 @@
         <f t="shared" si="1"/>
         <v>127120</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="I12" s="29">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="J12" s="28">
+        <f t="shared" si="2"/>
+        <v>0.11840000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:17" s="6" customFormat="1">
       <c r="A13" s="11" t="s">
@@ -1398,21 +1423,21 @@
       <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33">
         <f>SUM(H2:H18)</f>
         <v>1036315</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="18"/>

--- a/investment/new-stock.xlsx
+++ b/investment/new-stock.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,14 @@
   </si>
   <si>
     <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-300435</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中泰股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -937,11 +945,11 @@
         <v>0</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G17" si="0">F3/500</f>
+        <f t="shared" ref="G3:G18" si="0">F3/500</f>
         <v>0</v>
       </c>
       <c r="H3" s="14">
-        <f t="shared" ref="H3:H18" si="1">E3*F3</f>
+        <f t="shared" ref="H3:H19" si="1">E3*F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="10"/>
@@ -1252,48 +1260,48 @@
         <v>0.11840000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="6" customFormat="1">
-      <c r="A13" s="11" t="s">
+    <row r="13" spans="1:17" s="3" customFormat="1">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="23">
+        <v>42081</v>
+      </c>
+      <c r="E13" s="15">
+        <v>14.73</v>
+      </c>
+      <c r="F13" s="8">
+        <v>8000</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="1"/>
+        <v>117840</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" spans="1:17" s="6" customFormat="1">
+      <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C14" s="12">
         <v>732729</v>
-      </c>
-      <c r="D13" s="25">
-        <v>42074</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" s="5" customFormat="1">
-      <c r="A14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11">
-        <v>730958</v>
       </c>
       <c r="D14" s="25">
         <v>42074</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="12">
         <v>0</v>
       </c>
@@ -1305,21 +1313,21 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:17" s="5" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" s="11">
-        <v>732869</v>
-      </c>
-      <c r="D15" s="26">
-        <v>42075</v>
+        <v>730958</v>
+      </c>
+      <c r="D15" s="25">
+        <v>42074</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="12">
@@ -1338,15 +1346,15 @@
     </row>
     <row r="16" spans="1:17" s="5" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C16" s="11">
-        <v>732199</v>
-      </c>
-      <c r="D16" s="25">
+        <v>732869</v>
+      </c>
+      <c r="D16" s="26">
         <v>42075</v>
       </c>
       <c r="E16" s="11"/>
@@ -1366,13 +1374,13 @@
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11">
-        <v>732020</v>
+        <v>732199</v>
       </c>
       <c r="D17" s="25">
         <v>42075</v>
@@ -1393,63 +1401,79 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11">
+        <v>732020</v>
+      </c>
+      <c r="D18" s="25">
+        <v>42075</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1">
+      <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C19" s="9">
         <v>732338</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D19" s="23">
         <v>42076</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>29.56</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F19" s="8">
         <v>6000</v>
       </c>
-      <c r="G18" s="8">
-        <f>F18/1000</f>
+      <c r="G19" s="8">
+        <f>F19/1000</f>
         <v>6</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H19" s="15">
         <f t="shared" si="1"/>
         <v>177360</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="30" t="s">
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33">
-        <f>SUM(H2:H18)</f>
-        <v>1036315</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33">
+        <f>SUM(H2:H19)</f>
+        <v>1154155</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="18"/>
@@ -1475,10 +1499,22 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="H20:J20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/investment/new-stock.xlsx
+++ b/investment/new-stock.xlsx
@@ -803,7 +803,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1091,7 +1091,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
       <c r="J7" s="28">
-        <f t="shared" ref="J7:J12" si="2">I7*G7</f>
+        <f t="shared" ref="J7:J13" si="2">I7*G7</f>
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
@@ -1285,8 +1285,13 @@
         <f t="shared" si="1"/>
         <v>117840</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28"/>
+      <c r="I13" s="29">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J13" s="28">
+        <f t="shared" si="2"/>
+        <v>2.8799999999999999E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" s="6" customFormat="1">
       <c r="A14" s="11" t="s">
@@ -1455,8 +1460,13 @@
         <f t="shared" si="1"/>
         <v>177360</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="I19" s="29">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="J19" s="28">
+        <f t="shared" ref="J19" si="3">I19*G19</f>
+        <v>2.1600000000000001E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="30" t="s">
